--- a/temp/ip-1/studentsExcel.xlsx
+++ b/temp/ip-1/studentsExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudentTracker\temp\ip-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B2206-3DC2-456A-995E-0929C0B19DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE9D5B-166F-46C3-B3F4-9D91ACF36F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИП-111" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="353">
   <si>
     <t>№</t>
   </si>
@@ -1072,16 +1072,19 @@
     <t>Каллистрат</t>
   </si>
   <si>
-    <t>student_tracker_student_1@mail.ru</t>
-  </si>
-  <si>
-    <t>student_tracker_student_2@mail.ru</t>
-  </si>
-  <si>
-    <t>student_tracker_student_3@mail.ru</t>
-  </si>
-  <si>
-    <t>student_tracker_student_4@mail.ru</t>
+    <t>studenttrackerstudent3@gmail.com</t>
+  </si>
+  <si>
+    <t>studenttrackerstudent4@gmail.com</t>
+  </si>
+  <si>
+    <t>studenttrackerstudent1@gmail.com</t>
+  </si>
+  <si>
+    <t>studenttrackerstudent2@gmail.com</t>
+  </si>
+  <si>
+    <t>lpotnubika@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1443,7 @@
     <col min="2" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,8 +1488,8 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>348</v>
+      <c r="G2" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,8 +1511,8 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>348</v>
+      <c r="G3" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1531,8 +1534,8 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>348</v>
+      <c r="G4" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1554,8 +1557,8 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>348</v>
+      <c r="G5" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1577,8 +1580,8 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>348</v>
+      <c r="G6" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1600,8 +1603,8 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>348</v>
+      <c r="G7" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1623,8 +1626,8 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>348</v>
+      <c r="G8" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1646,8 +1649,8 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>348</v>
+      <c r="G9" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1669,8 +1672,8 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>348</v>
+      <c r="G10" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1693,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1716,7 +1719,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1739,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1808,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,7 +1834,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1854,7 +1857,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1877,7 +1880,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1923,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -1990,8 +1993,8 @@
       <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
-        <v>348</v>
+      <c r="G2" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2013,8 +2016,8 @@
       <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="G3" t="s">
-        <v>348</v>
+      <c r="G3" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,8 +2039,8 @@
       <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>348</v>
+      <c r="G4" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2059,8 +2062,8 @@
       <c r="F5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>348</v>
+      <c r="G5" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2082,8 +2085,8 @@
       <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="s">
-        <v>348</v>
+      <c r="G6" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,8 +2108,8 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" t="s">
-        <v>348</v>
+      <c r="G7" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2128,8 +2131,8 @@
       <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" t="s">
-        <v>348</v>
+      <c r="G8" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,8 +2154,8 @@
       <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" t="s">
-        <v>348</v>
+      <c r="G9" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2174,8 +2177,8 @@
       <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
-        <v>348</v>
+      <c r="G10" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2198,7 +2201,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2221,7 +2224,7 @@
         <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2244,7 +2247,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,7 +2270,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,7 +2293,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2313,7 +2316,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2336,7 +2339,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2359,7 +2362,7 @@
         <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2382,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2405,7 +2408,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2428,7 +2431,7 @@
         <v>68</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2496,8 +2499,8 @@
       <c r="F2" t="s">
         <v>125</v>
       </c>
-      <c r="G2" t="s">
-        <v>348</v>
+      <c r="G2" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2519,8 +2522,8 @@
       <c r="F3" t="s">
         <v>125</v>
       </c>
-      <c r="G3" t="s">
-        <v>348</v>
+      <c r="G3" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2542,8 +2545,8 @@
       <c r="F4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" t="s">
-        <v>348</v>
+      <c r="G4" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2565,8 +2568,8 @@
       <c r="F5" t="s">
         <v>125</v>
       </c>
-      <c r="G5" t="s">
-        <v>348</v>
+      <c r="G5" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2588,8 +2591,8 @@
       <c r="F6" t="s">
         <v>125</v>
       </c>
-      <c r="G6" t="s">
-        <v>348</v>
+      <c r="G6" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,8 +2614,8 @@
       <c r="F7" t="s">
         <v>125</v>
       </c>
-      <c r="G7" t="s">
-        <v>348</v>
+      <c r="G7" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2634,8 +2637,8 @@
       <c r="F8" t="s">
         <v>125</v>
       </c>
-      <c r="G8" t="s">
-        <v>348</v>
+      <c r="G8" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2657,8 +2660,8 @@
       <c r="F9" t="s">
         <v>125</v>
       </c>
-      <c r="G9" t="s">
-        <v>348</v>
+      <c r="G9" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2680,8 +2683,8 @@
       <c r="F10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" t="s">
-        <v>348</v>
+      <c r="G10" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2704,7 +2707,7 @@
         <v>125</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2727,7 +2730,7 @@
         <v>125</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,7 +2753,7 @@
         <v>125</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2773,7 +2776,7 @@
         <v>125</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2796,7 +2799,7 @@
         <v>125</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,7 +2822,7 @@
         <v>125</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2842,7 +2845,7 @@
         <v>125</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2865,7 +2868,7 @@
         <v>125</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2888,7 +2891,7 @@
         <v>125</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2911,7 +2914,7 @@
         <v>125</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2934,7 +2937,7 @@
         <v>125</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +2950,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+      <selection activeCell="G21" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,8 +3005,8 @@
       <c r="F2" t="s">
         <v>178</v>
       </c>
-      <c r="G2" t="s">
-        <v>348</v>
+      <c r="G2" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3025,8 +3028,8 @@
       <c r="F3" t="s">
         <v>178</v>
       </c>
-      <c r="G3" t="s">
-        <v>348</v>
+      <c r="G3" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3048,8 +3051,8 @@
       <c r="F4" t="s">
         <v>178</v>
       </c>
-      <c r="G4" t="s">
-        <v>348</v>
+      <c r="G4" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3071,8 +3074,8 @@
       <c r="F5" t="s">
         <v>178</v>
       </c>
-      <c r="G5" t="s">
-        <v>348</v>
+      <c r="G5" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3094,8 +3097,8 @@
       <c r="F6" t="s">
         <v>178</v>
       </c>
-      <c r="G6" t="s">
-        <v>348</v>
+      <c r="G6" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3117,8 +3120,8 @@
       <c r="F7" t="s">
         <v>178</v>
       </c>
-      <c r="G7" t="s">
-        <v>348</v>
+      <c r="G7" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3140,8 +3143,8 @@
       <c r="F8" t="s">
         <v>178</v>
       </c>
-      <c r="G8" t="s">
-        <v>348</v>
+      <c r="G8" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3163,8 +3166,8 @@
       <c r="F9" t="s">
         <v>178</v>
       </c>
-      <c r="G9" t="s">
-        <v>348</v>
+      <c r="G9" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3186,8 +3189,8 @@
       <c r="F10" t="s">
         <v>178</v>
       </c>
-      <c r="G10" t="s">
-        <v>348</v>
+      <c r="G10" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3210,7 +3213,7 @@
         <v>178</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,7 +3236,7 @@
         <v>178</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3256,7 +3259,7 @@
         <v>178</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3279,7 +3282,7 @@
         <v>178</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,7 +3305,7 @@
         <v>178</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3325,7 +3328,7 @@
         <v>178</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3348,7 +3351,7 @@
         <v>178</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,7 +3374,7 @@
         <v>178</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,7 +3397,7 @@
         <v>178</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,7 +3420,7 @@
         <v>178</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3440,7 +3443,7 @@
         <v>178</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +3456,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G2:G21"/>
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +3511,7 @@
         <v>227</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3531,7 +3534,7 @@
         <v>227</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3554,7 +3557,7 @@
         <v>227</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3577,7 +3580,7 @@
         <v>227</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3600,7 +3603,7 @@
         <v>227</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3623,7 +3626,7 @@
         <v>227</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3646,7 +3649,7 @@
         <v>227</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3669,7 +3672,7 @@
         <v>227</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3692,7 +3695,7 @@
         <v>227</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3715,7 +3718,7 @@
         <v>227</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3738,7 +3741,7 @@
         <v>227</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3761,7 +3764,7 @@
         <v>227</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3784,7 +3787,7 @@
         <v>227</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3807,7 +3810,7 @@
         <v>227</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3830,7 +3833,7 @@
         <v>227</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3853,7 +3856,7 @@
         <v>227</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3876,7 +3879,7 @@
         <v>227</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,7 +3902,7 @@
         <v>227</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3922,7 +3925,7 @@
         <v>227</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3945,7 +3948,7 @@
         <v>227</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3958,7 +3961,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G2:G21"/>
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4017,7 @@
         <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4037,7 +4040,7 @@
         <v>274</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4060,7 +4063,7 @@
         <v>274</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4083,7 +4086,7 @@
         <v>274</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4106,7 +4109,7 @@
         <v>274</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4129,7 +4132,7 @@
         <v>274</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4152,7 +4155,7 @@
         <v>274</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4175,7 +4178,7 @@
         <v>274</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4198,7 +4201,7 @@
         <v>274</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4221,7 +4224,7 @@
         <v>274</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4244,7 +4247,7 @@
         <v>274</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4267,7 +4270,7 @@
         <v>274</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4290,7 +4293,7 @@
         <v>274</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4313,7 +4316,7 @@
         <v>274</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4336,7 +4339,7 @@
         <v>274</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4359,7 +4362,7 @@
         <v>274</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4382,7 +4385,7 @@
         <v>274</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4405,7 +4408,7 @@
         <v>274</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4428,7 +4431,7 @@
         <v>274</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4451,7 +4454,7 @@
         <v>274</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4463,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G2:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,7 +4523,7 @@
         <v>310</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,7 +4546,7 @@
         <v>310</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4566,7 +4569,7 @@
         <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4589,7 +4592,7 @@
         <v>310</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4612,7 +4615,7 @@
         <v>310</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4635,7 +4638,7 @@
         <v>310</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4658,7 +4661,7 @@
         <v>310</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4681,7 +4684,7 @@
         <v>310</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4704,7 +4707,7 @@
         <v>310</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4727,7 +4730,7 @@
         <v>310</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4750,7 +4753,7 @@
         <v>310</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4773,7 +4776,7 @@
         <v>310</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4796,7 +4799,7 @@
         <v>310</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4819,7 +4822,7 @@
         <v>310</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4842,7 +4845,7 @@
         <v>310</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4865,7 +4868,7 @@
         <v>310</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4888,7 +4891,7 @@
         <v>310</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,7 +4914,7 @@
         <v>310</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4934,7 +4937,7 @@
         <v>310</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4957,7 +4960,7 @@
         <v>310</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/temp/ip-1/studentsExcel.xlsx
+++ b/temp/ip-1/studentsExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudentTracker\temp\ip-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE9D5B-166F-46C3-B3F4-9D91ACF36F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C2641A-6B89-4CDA-AA3D-39D3D104556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИП-111" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="354">
   <si>
     <t>№</t>
   </si>
@@ -1085,6 +1085,9 @@
   </si>
   <si>
     <t>lpotnubika@gmail.com</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1431,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1448,7 @@
     <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1488,11 +1490,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1511,11 +1513,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1534,11 +1536,11 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1557,11 +1559,11 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1580,11 +1582,11 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1603,11 +1605,11 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1626,11 +1628,11 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1649,11 +1651,11 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1672,11 +1674,11 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1695,11 +1697,11 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1718,11 +1720,11 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1741,11 +1743,11 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1764,11 +1766,14 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1787,11 +1792,11 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1810,7 +1815,7 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>351</v>
       </c>
     </row>
@@ -1833,7 +1838,7 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>351</v>
       </c>
     </row>
@@ -1856,7 +1861,7 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>351</v>
       </c>
     </row>
@@ -1879,7 +1884,7 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>351</v>
       </c>
     </row>
@@ -1902,7 +1907,7 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>351</v>
       </c>
     </row>
@@ -1925,7 +1930,7 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>351</v>
       </c>
     </row>
@@ -1993,7 +1998,7 @@
       <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2016,7 +2021,7 @@
       <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2039,7 +2044,7 @@
       <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2062,7 +2067,7 @@
       <c r="F5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2085,7 +2090,7 @@
       <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2108,7 +2113,7 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2131,7 +2136,7 @@
       <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2154,7 +2159,7 @@
       <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2177,7 +2182,7 @@
       <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2200,7 +2205,7 @@
       <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2223,7 +2228,7 @@
       <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2246,7 +2251,7 @@
       <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2269,7 +2274,7 @@
       <c r="F14" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2292,7 +2297,7 @@
       <c r="F15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2315,7 +2320,7 @@
       <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2338,7 +2343,7 @@
       <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2361,7 +2366,7 @@
       <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2384,7 +2389,7 @@
       <c r="F19" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2407,7 +2412,7 @@
       <c r="F20" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2430,7 +2435,7 @@
       <c r="F21" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2441,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2504,7 @@
       <c r="F2" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2522,7 +2527,7 @@
       <c r="F3" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2545,7 +2550,7 @@
       <c r="F4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2568,7 +2573,7 @@
       <c r="F5" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2591,7 +2596,7 @@
       <c r="F6" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2614,7 +2619,7 @@
       <c r="F7" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2637,7 +2642,7 @@
       <c r="F8" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2660,7 +2665,7 @@
       <c r="F9" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2683,7 +2688,7 @@
       <c r="F10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2706,7 +2711,7 @@
       <c r="F11" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2729,7 +2734,7 @@
       <c r="F12" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2752,7 +2757,7 @@
       <c r="F13" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2775,7 +2780,7 @@
       <c r="F14" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2798,7 +2803,7 @@
       <c r="F15" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2821,11 +2826,11 @@
       <c r="F16" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2844,11 +2849,11 @@
       <c r="F17" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2867,11 +2872,14 @@
       <c r="F18" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2890,11 +2898,11 @@
       <c r="F19" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2913,11 +2921,11 @@
       <c r="F20" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2936,7 +2944,7 @@
       <c r="F21" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3005,7 +3013,7 @@
       <c r="F2" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3028,7 +3036,7 @@
       <c r="F3" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3051,7 +3059,7 @@
       <c r="F4" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3074,7 +3082,7 @@
       <c r="F5" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3097,7 +3105,7 @@
       <c r="F6" t="s">
         <v>178</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3120,7 +3128,7 @@
       <c r="F7" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3143,7 +3151,7 @@
       <c r="F8" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3166,7 +3174,7 @@
       <c r="F9" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3189,7 +3197,7 @@
       <c r="F10" t="s">
         <v>178</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3212,7 +3220,7 @@
       <c r="F11" t="s">
         <v>178</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3235,7 +3243,7 @@
       <c r="F12" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3258,7 +3266,7 @@
       <c r="F13" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3281,7 +3289,7 @@
       <c r="F14" t="s">
         <v>178</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3304,7 +3312,7 @@
       <c r="F15" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3327,7 +3335,7 @@
       <c r="F16" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3350,7 +3358,7 @@
       <c r="F17" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3373,7 +3381,7 @@
       <c r="F18" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3396,7 +3404,7 @@
       <c r="F19" t="s">
         <v>178</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3419,7 +3427,7 @@
       <c r="F20" t="s">
         <v>178</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3442,7 +3450,7 @@
       <c r="F21" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3510,7 +3518,7 @@
       <c r="F2" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3533,7 +3541,7 @@
       <c r="F3" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3556,7 +3564,7 @@
       <c r="F4" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3579,7 +3587,7 @@
       <c r="F5" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3602,7 +3610,7 @@
       <c r="F6" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3625,7 +3633,7 @@
       <c r="F7" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3648,7 +3656,7 @@
       <c r="F8" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3671,7 +3679,7 @@
       <c r="F9" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3694,7 +3702,7 @@
       <c r="F10" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3717,7 +3725,7 @@
       <c r="F11" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3740,7 +3748,7 @@
       <c r="F12" t="s">
         <v>227</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3763,7 +3771,7 @@
       <c r="F13" t="s">
         <v>227</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3786,7 +3794,7 @@
       <c r="F14" t="s">
         <v>227</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3809,7 +3817,7 @@
       <c r="F15" t="s">
         <v>227</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3832,7 +3840,7 @@
       <c r="F16" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3855,7 +3863,7 @@
       <c r="F17" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3878,7 +3886,7 @@
       <c r="F18" t="s">
         <v>227</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3901,7 +3909,7 @@
       <c r="F19" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3924,7 +3932,7 @@
       <c r="F20" t="s">
         <v>227</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3947,7 +3955,7 @@
       <c r="F21" t="s">
         <v>227</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4016,7 +4024,7 @@
       <c r="F2" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4039,7 +4047,7 @@
       <c r="F3" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4062,7 +4070,7 @@
       <c r="F4" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4085,7 +4093,7 @@
       <c r="F5" t="s">
         <v>274</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4108,7 +4116,7 @@
       <c r="F6" t="s">
         <v>274</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4131,7 +4139,7 @@
       <c r="F7" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4154,7 +4162,7 @@
       <c r="F8" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4177,7 +4185,7 @@
       <c r="F9" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4200,7 +4208,7 @@
       <c r="F10" t="s">
         <v>274</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4223,7 +4231,7 @@
       <c r="F11" t="s">
         <v>274</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4246,7 +4254,7 @@
       <c r="F12" t="s">
         <v>274</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4269,7 +4277,7 @@
       <c r="F13" t="s">
         <v>274</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4292,7 +4300,7 @@
       <c r="F14" t="s">
         <v>274</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4315,7 +4323,7 @@
       <c r="F15" t="s">
         <v>274</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4338,7 +4346,7 @@
       <c r="F16" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4361,7 +4369,7 @@
       <c r="F17" t="s">
         <v>274</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4384,7 +4392,7 @@
       <c r="F18" t="s">
         <v>274</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4407,7 +4415,7 @@
       <c r="F19" t="s">
         <v>274</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4430,7 +4438,7 @@
       <c r="F20" t="s">
         <v>274</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4453,7 +4461,7 @@
       <c r="F21" t="s">
         <v>274</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4522,7 +4530,7 @@
       <c r="F2" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4545,7 +4553,7 @@
       <c r="F3" t="s">
         <v>310</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4568,7 +4576,7 @@
       <c r="F4" t="s">
         <v>310</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4591,7 +4599,7 @@
       <c r="F5" t="s">
         <v>310</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4614,7 +4622,7 @@
       <c r="F6" t="s">
         <v>310</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4637,7 +4645,7 @@
       <c r="F7" t="s">
         <v>310</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4660,7 +4668,7 @@
       <c r="F8" t="s">
         <v>310</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4683,7 +4691,7 @@
       <c r="F9" t="s">
         <v>310</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4706,7 +4714,7 @@
       <c r="F10" t="s">
         <v>310</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4729,7 +4737,7 @@
       <c r="F11" t="s">
         <v>310</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4752,7 +4760,7 @@
       <c r="F12" t="s">
         <v>310</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4775,7 +4783,7 @@
       <c r="F13" t="s">
         <v>310</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4798,7 +4806,7 @@
       <c r="F14" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4821,7 +4829,7 @@
       <c r="F15" t="s">
         <v>310</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4844,7 +4852,7 @@
       <c r="F16" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4867,7 +4875,7 @@
       <c r="F17" t="s">
         <v>310</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4890,7 +4898,7 @@
       <c r="F18" t="s">
         <v>310</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4913,7 +4921,7 @@
       <c r="F19" t="s">
         <v>310</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4936,7 +4944,7 @@
       <c r="F20" t="s">
         <v>310</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4959,7 +4967,7 @@
       <c r="F21" t="s">
         <v>310</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>349</v>
       </c>
     </row>
